--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28862555-9E54-494A-941D-9D1028E61C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1C46C9-CF85-B942-96DA-30CB1F8BB4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,8 +664,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1C46C9-CF85-B942-96DA-30CB1F8BB4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C062A34F-7592-5E40-9777-B23BD8E5DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>girl-bridge.jpg</t>
   </si>
   <si>
-    <t>[stausbergReligionBegriffDefinitionen2012a, wenzelDefinitionenReligion2023a]</t>
-  </si>
-  <si>
     <t>[brombergerFussballAlsWeltsicht2003a, langerTherapeutischreligioseRitualperformanzenIm2015a]</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>[schmiedelInterreligioeserDialogAls2008]</t>
+  </si>
+  <si>
+    <t>stausbergI1ReligionBegriff2012</t>
   </si>
 </sst>
 </file>
@@ -272,12 +272,19 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd\.mm"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd\.mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -331,18 +338,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -351,10 +358,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -664,8 +672,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -827,8 +835,8 @@
         <f t="shared" ref="L3:L16" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3 &amp; ". " &amp; F3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-Definitionen</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>65</v>
+      <c r="M3" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="2"/>
@@ -885,7 +893,7 @@
         <v>3-Ritual</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
@@ -937,7 +945,7 @@
         <v>4-Gruppen</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="2"/>
@@ -989,7 +997,7 @@
         <v>5-Gender</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="2"/>
@@ -1041,7 +1049,7 @@
         <v>6-Orthodoxie</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="2"/>
@@ -1143,7 +1151,7 @@
         <v>8-Schriften</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="2"/>
@@ -1195,7 +1203,7 @@
         <v>9-Objekte</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="2"/>
@@ -1247,7 +1255,7 @@
         <v>10-Orte</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="2"/>
@@ -1299,7 +1307,7 @@
         <v>11-Körper</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="2"/>
@@ -1351,7 +1359,7 @@
         <v>12-Digitalisierung</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="2"/>
@@ -1403,7 +1411,7 @@
         <v>13-Extremismus</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="2"/>
@@ -1455,7 +1463,7 @@
         <v>14-Interreligiös</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="2"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C062A34F-7592-5E40-9777-B23BD8E5DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF85B4-5EC7-E546-9E9F-55233B060186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -209,15 +209,9 @@
     <t>synagogue-scroll.jpg</t>
   </si>
   <si>
-    <t>08_materialeReligion.jpg</t>
-  </si>
-  <si>
     <t>madaba-map.jpg</t>
   </si>
   <si>
-    <t>03_heilung_cr.jpg</t>
-  </si>
-  <si>
     <t>digital.jpg</t>
   </si>
   <si>
@@ -264,6 +258,12 @@
   </si>
   <si>
     <t>stausbergI1ReligionBegriff2012</t>
+  </si>
+  <si>
+    <t>dhanvantari.jpg</t>
+  </si>
+  <si>
+    <t>mosque.jpg</t>
   </si>
 </sst>
 </file>
@@ -672,8 +672,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -836,7 +836,7 @@
         <v>2-Definitionen</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="2"/>
@@ -893,7 +893,7 @@
         <v>3-Ritual</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
@@ -945,7 +945,7 @@
         <v>4-Gruppen</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="2"/>
@@ -997,7 +997,7 @@
         <v>5-Gender</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="2"/>
@@ -1049,7 +1049,7 @@
         <v>6-Orthodoxie</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="2"/>
@@ -1151,7 +1151,7 @@
         <v>8-Schriften</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="2"/>
@@ -1196,14 +1196,14 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="4"/>
         <v>9-Objekte</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="2"/>
@@ -1248,14 +1248,14 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="4"/>
         <v>10-Orte</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="2"/>
@@ -1300,14 +1300,14 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="4"/>
         <v>11-Körper</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="2"/>
@@ -1352,14 +1352,14 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="4"/>
         <v>12-Digitalisierung</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="2"/>
@@ -1404,14 +1404,14 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="4"/>
         <v>13-Extremismus</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="2"/>
@@ -1456,14 +1456,14 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="4"/>
         <v>14-Interreligiös</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="2"/>
@@ -1508,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="4"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF85B4-5EC7-E546-9E9F-55233B060186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2183BB4A-890B-0B40-8D65-9D4B906081F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -224,39 +224,6 @@
     <t>girl-bridge.jpg</t>
   </si>
   <si>
-    <t>[brombergerFussballAlsWeltsicht2003a, langerTherapeutischreligioseRitualperformanzenIm2015a]</t>
-  </si>
-  <si>
-    <t>[rengerIIIMeisterJuengerUnd2012]</t>
-  </si>
-  <si>
-    <t>[frankeReligionenReligionswissenschaftUnd2012a, gemmekeMaraboutWomenDakar2009a]</t>
-  </si>
-  <si>
-    <t>[bernerSynkretismus2001a, langerYezidismScholarlyLiterature2010]</t>
-  </si>
-  <si>
-    <t>[pelikanWrittenTorahTalmud2006]</t>
-  </si>
-  <si>
-    <t>[prohlMaterialeReligion2012a]</t>
-  </si>
-  <si>
-    <t>[hess12SacredSpaces2018a, walker11Pilgrimage2018a]</t>
-  </si>
-  <si>
-    <t>[csordasIntroduction1994a, zinserOrakelUndOffenbarung2010a]</t>
-  </si>
-  <si>
-    <t>[campbellContextualizingCurrentDigital2020, mattesYouBeOnYoungBelievers2022]</t>
-  </si>
-  <si>
-    <t>[riesebrodtFundamentalismusAlsPatriarchalische1990]</t>
-  </si>
-  <si>
-    <t>[schmiedelInterreligioeserDialogAls2008]</t>
-  </si>
-  <si>
     <t>stausbergI1ReligionBegriff2012</t>
   </si>
   <si>
@@ -264,6 +231,39 @@
   </si>
   <si>
     <t>mosque.jpg</t>
+  </si>
+  <si>
+    <t>brombergerFussballAlsWeltsicht2003</t>
+  </si>
+  <si>
+    <t>rengerIII7MeisterJuengerUnd2012</t>
+  </si>
+  <si>
+    <t>gemmekeMaraboutWomenDakar2009</t>
+  </si>
+  <si>
+    <t>bernerSynkretismus2001</t>
+  </si>
+  <si>
+    <t>pelikanWrittenTorahTalmud2006</t>
+  </si>
+  <si>
+    <t>prohlMaterialeReligion2012</t>
+  </si>
+  <si>
+    <t>walker11Pilgrimage2018</t>
+  </si>
+  <si>
+    <t>csordasIntroduction1994</t>
+  </si>
+  <si>
+    <t>campbellContextualizingCurrentDigital2020</t>
+  </si>
+  <si>
+    <t>riesebrodtFundamentalismusAlsPatriarchalische1990</t>
+  </si>
+  <si>
+    <t>schmiedelInterreligioeserDialogAls2008</t>
   </si>
 </sst>
 </file>
@@ -275,9 +275,16 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="dd\.mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -338,18 +345,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -359,9 +366,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -672,8 +680,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -836,7 +844,7 @@
         <v>2-Definitionen</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="2"/>
@@ -892,8 +900,8 @@
         <f t="shared" si="4"/>
         <v>3-Ritual</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>63</v>
+      <c r="M4" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
@@ -945,7 +953,7 @@
         <v>4-Gruppen</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="2"/>
@@ -997,7 +1005,7 @@
         <v>5-Gender</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="2"/>
@@ -1049,7 +1057,7 @@
         <v>6-Orthodoxie</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="2"/>
@@ -1151,7 +1159,7 @@
         <v>8-Schriften</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="2"/>
@@ -1196,14 +1204,14 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="4"/>
         <v>9-Objekte</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="2"/>
@@ -1255,7 +1263,7 @@
         <v>10-Orte</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="2"/>
@@ -1300,14 +1308,14 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="4"/>
         <v>11-Körper</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="2"/>
@@ -1359,7 +1367,7 @@
         <v>12-Digitalisierung</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="2"/>
@@ -1411,7 +1419,7 @@
         <v>13-Extremismus</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="2"/>
@@ -1463,7 +1471,7 @@
         <v>14-Interreligiös</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="2"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2183BB4A-890B-0B40-8D65-9D4B906081F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8676542-60AB-1347-8E84-BA96B9DBCAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>blank</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>schmiedelInterreligioeserDialogAls2008</t>
+  </si>
+  <si>
+    <t>Verschiedene Definitionen von Religion unterscheiden können, was sie umfassen und wofür sie nützlich sein können.</t>
   </si>
 </sst>
 </file>
@@ -680,8 +683,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -846,6 +849,9 @@
       <c r="M3" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="N3" t="s">
+        <v>77</v>
+      </c>
       <c r="O3" t="str">
         <f t="shared" si="2"/>
         <v>[2]</v>
